--- a/target/classes/AddigyTestData.xlsx
+++ b/target/classes/AddigyTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelaleinik/Library/Mobile Documents/com~apple~CloudDocs/Java/Selenium_projects/addigy/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelaleinik/IdeaProjects/addigy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6A54F-1E81-684C-963B-E95A39330D63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F39BCA-1296-F843-A0B4-2E2B33B1D764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="9560" windowWidth="24960" windowHeight="13200" xr2:uid="{BEA52767-7AAD-E847-BC99-442FB4CB31F9}"/>
+    <workbookView xWindow="5540" yWindow="6200" windowWidth="24960" windowHeight="13200" xr2:uid="{BEA52767-7AAD-E847-BC99-442FB4CB31F9}"/>
   </bookViews>
   <sheets>
     <sheet name="pavel" sheetId="1" r:id="rId1"/>
@@ -90,12 +90,6 @@
     <t>70000$</t>
   </si>
   <si>
-    <t>http://git.com</t>
-  </si>
-  <si>
-    <t>http://linkedin.com</t>
-  </si>
-  <si>
     <t>HighestEducationObtained</t>
   </si>
   <si>
@@ -108,10 +102,16 @@
     <t>2154858115</t>
   </si>
   <si>
-    <t>/Users/pavelaleinik/Library/Mobile Documents/com~apple~CloudDocs/Java/Selenium_projects/addigy/src/main/resources/AddigyTestData.xlsx</t>
-  </si>
-  <si>
     <t>pathFile</t>
+  </si>
+  <si>
+    <t>/Users/pavelaleinik/IdeaProjects/addigy/src/main/resources/Resume_QA_Automation_Test_Engineer_Pavel_Aleinik.docx</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/pavel-aleinik-a15419176</t>
+  </si>
+  <si>
+    <t>https://github.com/haromets/Addigy</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -572,23 +572,23 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>15</v>
